--- a/data/html5_mcq.xlsx
+++ b/data/html5_mcq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\graduation-project--master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD0F497-0470-4BA2-9238-2144317BD1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F7CF3-1E10-4FA9-A11A-2CA5C61D8647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFB9094A-7FF6-4941-BCA7-01EBA3572DCD}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/html5_mcq.xlsx
+++ b/data/html5_mcq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\graduation-project--master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F7CF3-1E10-4FA9-A11A-2CA5C61D8647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F895759B-1811-4702-A2C0-B2E2DA9915B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FFB9094A-7FF6-4941-BCA7-01EBA3572DCD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>question</t>
   </si>
@@ -81,18 +81,12 @@
     <t> enhance the document</t>
   </si>
   <si>
-    <t> both 2 answers</t>
-  </si>
-  <si>
     <t>Which of the following tags do not require a terminator?</t>
   </si>
   <si>
     <t>&lt;u&gt;</t>
   </si>
   <si>
-    <t> &lt;br&gt;</t>
-  </si>
-  <si>
     <t> &lt;b&gt;</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>&lt;!– and — &gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;!– and — &gt;</t>
-  </si>
-  <si>
     <t>&lt;! And !&gt;</t>
   </si>
   <si>
@@ -247,6 +238,12 @@
   </si>
   <si>
     <t> Application programming interface</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>both 2 answers</t>
   </si>
 </sst>
 </file>
@@ -632,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F68A65B-0FC2-4C62-9D64-1E00817ADA47}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +670,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -699,19 +696,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -725,19 +722,19 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -751,19 +748,19 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -777,19 +774,19 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3">
         <v>3</v>
@@ -803,19 +800,19 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
@@ -829,19 +826,19 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -855,19 +852,19 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -881,19 +878,19 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -907,19 +904,19 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -933,19 +930,19 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
@@ -959,19 +956,19 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
@@ -983,19 +980,19 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -1007,19 +1004,19 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -1031,19 +1028,19 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
